--- a/reports/air_raw_data/date_price_weigth.xlsx
+++ b/reports/air_raw_data/date_price_weigth.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>254079.295</v>
+        <v>288278</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>225894.4</v>
+        <v>245773</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>273938.25</v>
+        <v>307381</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>304437.14</v>
+        <v>321979</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>218943.182</v>
+        <v>233816</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>277480.21</v>
+        <v>289898</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>218569.544</v>
+        <v>235495</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>282403.02</v>
+        <v>305335</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>320330.8</v>
+        <v>353918</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>315579.625</v>
+        <v>349721</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>473403.59</v>
+        <v>528846</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>254484.99</v>
+        <v>267000</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>198470.26</v>
+        <v>211521</v>
       </c>
     </row>
     <row r="15">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>202051.5</v>
+        <v>219921</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>347804.26</v>
+        <v>364695</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>268613.33</v>
+        <v>290203</v>
       </c>
     </row>
     <row r="18">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>362754.6</v>
+        <v>380202</v>
       </c>
     </row>
     <row r="19">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>270403.97</v>
+        <v>287077</v>
       </c>
     </row>
     <row r="20">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>260300.69</v>
+        <v>280994</v>
       </c>
     </row>
     <row r="21">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>357586.61</v>
+        <v>372540</v>
       </c>
     </row>
     <row r="22">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>248268.59</v>
+        <v>259287</v>
       </c>
     </row>
     <row r="23">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>289574.75</v>
+        <v>324590</v>
       </c>
     </row>
     <row r="24">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>272740.31</v>
+        <v>294172</v>
       </c>
     </row>
     <row r="25">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>244082.12</v>
+        <v>262431</v>
       </c>
     </row>
     <row r="26">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>342123.8</v>
+        <v>364816</v>
       </c>
     </row>
     <row r="27">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>295350.94</v>
+        <v>317344</v>
       </c>
     </row>
     <row r="28">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>378220.84</v>
+        <v>404796</v>
       </c>
     </row>
   </sheetData>
